--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/01.NhanBH/NBH201219_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/01.NhanBH/NBH201219_LapDat.xlsx
@@ -496,6 +496,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -533,36 +563,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -921,7 +921,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -938,92 +938,92 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
@@ -1121,7 +1121,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="21">
-        <v>866762026950558</v>
+        <v>864161025125324</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>23</v>
@@ -1189,11 +1189,11 @@
       <c r="A19" s="15"/>
       <c r="B19" s="5"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
@@ -1201,11 +1201,11 @@
         <v>13</v>
       </c>
       <c r="C20" s="27"/>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
@@ -1246,11 +1246,11 @@
         <v>14</v>
       </c>
       <c r="C25" s="25"/>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
@@ -1278,11 +1278,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B6:F6"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="C1:F1"/>
@@ -1290,6 +1285,11 @@
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B7:F7"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
